--- a/test_data/mock_PPSH.xlsx
+++ b/test_data/mock_PPSH.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21105"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17480" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="176">
   <si>
     <t>SamplePlatform_code_TNO</t>
   </si>
@@ -553,7 +554,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -566,6 +567,22 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -585,8 +602,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -594,7 +613,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -926,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EX23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CJ3" workbookViewId="0">
-      <selection activeCell="CN22" sqref="CN22:CO23"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:EX12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6514,6 +6535,5595 @@
       <c r="CO23">
         <f>-2/0.5</f>
         <v>-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:EX12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="EV1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:EX12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:154">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CP1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CT1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="CU1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="CW1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="CX1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="CY1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="CZ1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="DA1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="DB1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="DC1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="DD1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DE1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="DG1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="DI1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DJ1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="DK1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="DL1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="DM1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="DN1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="DO1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="DP1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="DQ1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="DR1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="DS1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="DT1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="DU1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="DV1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="DW1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="DX1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="DY1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="DZ1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="EA1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="EB1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="EC1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="ED1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="EE1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="EF1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="EG1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="EH1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="EI1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="EJ1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="EK1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="EL1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="EM1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="EN1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="EO1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="EP1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="EQ1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="ER1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="ES1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="ET1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="EU1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="EV1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="EW1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="EX1" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:154">
+      <c r="A2" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="U2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="X2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Z2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AA2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AC2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AD2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AE2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AF2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AG2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AH2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AI2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AJ2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AK2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AL2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AM2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AN2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AO2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AP2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AQ2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AR2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AS2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AT2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AU2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AV2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AW2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AX2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AY2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AZ2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BA2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BB2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BC2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BD2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BE2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BF2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BG2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BH2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BI2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BJ2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BK2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BL2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BM2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BN2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BO2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BP2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BQ2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BR2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BS2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BT2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BU2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BV2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BW2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BX2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BY2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BZ2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CA2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CB2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CC2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CD2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CE2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CF2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CG2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CH2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CI2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CJ2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CK2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CL2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CM2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CN2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CO2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CP2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CQ2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CR2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CS2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CT2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CU2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CV2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CW2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CX2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CY2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CZ2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DA2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DB2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DC2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DD2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DE2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DF2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DG2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DH2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DI2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DJ2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DK2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DL2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DM2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DN2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DO2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DP2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DQ2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DR2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DS2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DT2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DU2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DV2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DW2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DX2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DY2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DZ2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EA2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EB2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EC2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="ED2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EE2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EF2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EG2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EH2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EI2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EJ2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EK2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EL2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EM2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EN2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EO2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EP2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EQ2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="ER2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="ES2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="ET2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EU2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EV2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EW2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EX2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:154">
+      <c r="A3" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="U3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="X3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Z3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AA3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AC3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AD3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AE3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AF3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AG3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AH3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AI3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AJ3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AK3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AL3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AM3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AN3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AO3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AP3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AQ3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AR3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AS3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AT3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AU3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AV3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AW3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AX3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AY3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AZ3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BA3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BB3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BC3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BD3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BE3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BF3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BG3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BH3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BI3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BJ3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BK3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BL3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BM3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BN3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BO3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BP3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BQ3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BR3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BS3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BT3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BU3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BV3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BW3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BX3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BY3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BZ3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CA3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CB3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CC3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CD3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CE3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CF3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CG3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CH3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CI3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CJ3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CK3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CL3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CM3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CN3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CO3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CP3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CQ3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CR3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CS3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CT3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CU3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CV3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CW3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CX3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CY3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CZ3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DA3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DB3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DC3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DD3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DE3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DF3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DG3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DH3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DI3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DJ3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DK3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DL3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DM3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DN3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DO3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DP3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DQ3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DR3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DS3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DT3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DU3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DV3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DW3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DX3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DY3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DZ3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EA3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EB3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EC3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="ED3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EE3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EF3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EG3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EH3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EI3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EJ3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EK3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EL3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EM3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EN3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EO3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EP3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EQ3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="ER3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="ES3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="ET3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EU3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EV3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EW3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EX3">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:154">
+      <c r="A4" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="U4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="X4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Z4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AA4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AC4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AD4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AE4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AF4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AG4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AH4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AI4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AJ4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AK4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AL4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AM4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AN4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AO4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AP4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AQ4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AR4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AS4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AT4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AU4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AV4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AW4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AX4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AY4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AZ4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BA4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BB4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BC4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BD4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BE4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BF4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BG4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BH4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BI4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BJ4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BK4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BL4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BM4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BN4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BO4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BP4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BQ4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BR4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BS4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BT4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BU4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BV4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BW4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BX4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BY4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BZ4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CA4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CB4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CC4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CD4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CE4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CF4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CG4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CH4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CI4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CJ4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CK4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CL4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CM4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CN4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CO4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CP4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CQ4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CR4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CS4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CT4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CU4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CV4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CW4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CX4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CY4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CZ4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DA4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DB4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DC4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DD4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DE4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DF4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DG4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DH4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DI4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DJ4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DK4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DL4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DM4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DN4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DO4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DP4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DQ4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DR4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DS4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DT4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DU4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DV4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DW4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DX4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DY4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DZ4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EA4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EB4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EC4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="ED4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EE4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EF4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EG4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EH4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EI4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EJ4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EK4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EL4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EM4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EN4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EO4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EP4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EQ4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="ER4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="ES4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="ET4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EU4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EV4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EW4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EX4">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:154">
+      <c r="A5" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="U5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="X5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Z5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AA5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AC5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AD5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AE5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AF5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AG5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AH5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AI5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AJ5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AK5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AL5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AM5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AN5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AO5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AP5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AQ5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AR5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AS5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AT5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AU5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AV5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AW5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AX5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AY5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AZ5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BA5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BB5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BC5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BD5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BE5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BF5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BG5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BH5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BI5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BJ5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BK5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BL5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BM5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BN5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BO5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BP5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BQ5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BR5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BS5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BT5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BU5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BV5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BW5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BX5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BY5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BZ5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CA5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CB5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CC5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CD5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CE5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CF5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CG5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CH5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CI5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CJ5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CK5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CL5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CM5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CN5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CO5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CP5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CQ5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CR5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CS5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CT5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CU5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CV5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CW5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CX5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CY5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CZ5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DA5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DB5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DC5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DD5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DE5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DF5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DG5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DH5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DI5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DJ5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DK5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DL5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DM5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DN5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DO5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DP5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DQ5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DR5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DS5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DT5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DU5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DV5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DW5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DX5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DY5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DZ5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EA5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EB5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EC5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="ED5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EE5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EF5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EG5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EH5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EI5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EJ5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EK5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EL5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EM5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EN5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EO5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EP5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EQ5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="ER5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="ES5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="ET5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EU5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EV5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EW5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EX5">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:154">
+      <c r="A6" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="U6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="X6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Z6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AA6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AC6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AD6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AE6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AF6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AG6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AH6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AI6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AJ6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AK6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AL6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AM6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AN6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AO6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AP6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AQ6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AR6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AS6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AT6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AU6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AV6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AW6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AX6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AY6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AZ6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BA6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BB6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BC6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BD6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BE6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BF6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BG6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BH6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BI6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BJ6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BK6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BL6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BM6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BN6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BO6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BP6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BQ6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BR6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BS6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BT6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BU6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BV6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BW6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BX6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BY6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BZ6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CA6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CB6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CC6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CD6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CE6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CF6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CG6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CH6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CI6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CJ6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CK6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CL6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CM6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CN6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CO6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CP6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CQ6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CR6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CS6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CT6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CU6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CV6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CW6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CX6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CY6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CZ6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DA6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DB6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DC6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DD6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DE6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DF6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DG6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DH6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DI6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DJ6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DK6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DL6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DM6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DN6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DO6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DP6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DQ6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DR6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DS6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DT6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DU6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DV6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DW6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DX6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DY6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DZ6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EA6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EB6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EC6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="ED6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EE6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EF6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EG6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EH6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EI6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EJ6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EK6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EL6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EM6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EN6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EO6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EP6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EQ6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="ER6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="ES6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="ET6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EU6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EV6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EW6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EX6">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:154">
+      <c r="A7" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="U7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="X7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Z7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AA7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AC7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AD7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AE7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AF7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AG7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AH7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AI7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AJ7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AK7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AL7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AM7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AN7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AO7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AP7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AQ7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AR7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AS7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AT7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AU7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AV7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AW7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AX7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AY7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AZ7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BA7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BB7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BC7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BD7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BE7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BF7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BG7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BH7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BI7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BJ7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BK7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BL7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BM7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BN7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BO7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BP7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BQ7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BR7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BS7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BT7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BU7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BV7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BW7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BX7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BY7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BZ7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CA7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CB7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CC7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CD7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CE7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CF7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CG7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CH7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CI7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CJ7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CK7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CL7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CM7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CN7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CO7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CP7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CQ7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CR7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CS7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CT7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CU7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CV7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CW7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CX7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CY7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CZ7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DA7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DB7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DC7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DD7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DE7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DF7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DG7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DH7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DI7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DJ7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DK7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DL7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DM7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DN7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DO7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DP7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DQ7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DR7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DS7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DT7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DU7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DV7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DW7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DX7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DY7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DZ7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EA7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EB7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EC7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="ED7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EE7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EF7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EG7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EH7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EI7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EJ7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EK7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EL7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EM7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EN7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EO7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EP7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EQ7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="ER7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="ES7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="ET7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EU7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EV7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EW7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EX7">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:154">
+      <c r="A8" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="U8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="X8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Z8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AA8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AC8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AD8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AE8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AF8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AG8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AH8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AI8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AJ8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AK8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AL8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AM8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AN8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AO8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AP8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AQ8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AR8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AS8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AT8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AU8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AV8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AW8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AX8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AY8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AZ8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BA8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BB8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BC8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BD8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BE8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BF8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BG8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BH8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BI8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BJ8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BK8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BL8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BM8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BN8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BO8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BP8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BQ8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BR8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BS8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BT8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BU8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BV8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BW8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BX8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BY8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BZ8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CA8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CB8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CC8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CD8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CE8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CF8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CG8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CH8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CI8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CJ8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CK8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CL8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CM8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CN8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CO8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CP8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CQ8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CR8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CS8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CT8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CU8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CV8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CW8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CX8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CY8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CZ8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DA8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DB8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DC8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DD8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DE8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DF8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DG8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DH8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DI8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DJ8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DK8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DL8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DM8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DN8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DO8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DP8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DQ8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DR8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DS8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DT8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DU8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DV8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DW8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DX8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DY8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DZ8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EA8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EB8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EC8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="ED8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EE8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EF8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EG8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EH8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EI8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EJ8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EK8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EL8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EM8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EN8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EO8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EP8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EQ8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="ER8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="ES8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="ET8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EU8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EV8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EW8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EX8">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:154">
+      <c r="A9" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="U9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="X9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Z9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AA9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AC9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AD9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AE9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AF9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AG9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AH9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AI9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AJ9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AK9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AL9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AM9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AN9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AO9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AP9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AQ9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AR9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AS9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AT9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AU9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AV9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AW9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AX9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AY9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AZ9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BA9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BB9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BC9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BD9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BE9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BF9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BG9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BH9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BI9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BJ9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BK9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BL9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BM9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BN9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BO9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BP9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BQ9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BR9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BS9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BT9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BU9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BV9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BW9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BX9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BY9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BZ9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CA9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CB9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CC9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CD9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CE9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CF9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CG9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CH9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CI9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CJ9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CK9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CL9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CM9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CN9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CO9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CP9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CQ9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CR9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CS9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CT9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CU9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CV9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CW9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CX9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CY9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CZ9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DA9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DB9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DC9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DD9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DE9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DF9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DG9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DH9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DI9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DJ9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DK9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DL9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DM9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DN9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DO9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DP9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DQ9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DR9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DS9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DT9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DU9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DV9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DW9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DX9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DY9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DZ9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EA9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EB9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EC9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="ED9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EE9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EF9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EG9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EH9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EI9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EJ9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EK9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EL9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EM9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EN9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EO9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EP9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EQ9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="ER9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="ES9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="ET9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EU9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EV9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EW9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EX9">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:154">
+      <c r="A10" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="U10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="X10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Z10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AA10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AC10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AD10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AE10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AF10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AG10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AH10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AI10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AJ10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AK10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AL10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AM10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AN10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AO10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AP10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AQ10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AR10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AS10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AT10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AU10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AV10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AW10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AX10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AY10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AZ10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BA10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BB10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BC10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BD10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BE10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BF10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BG10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BH10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BI10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BJ10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BK10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BL10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BM10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BN10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BO10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BP10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BQ10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BR10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BS10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BT10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BU10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BV10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BW10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BX10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BY10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BZ10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CA10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CB10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CC10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CD10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CE10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CF10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CG10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CH10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CI10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CJ10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CK10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CL10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CM10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CN10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CO10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CP10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CQ10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CR10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CS10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CT10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CU10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CV10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CW10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CX10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CY10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CZ10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DA10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DB10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DC10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DD10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DE10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DF10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DG10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DH10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DI10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DJ10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DK10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DL10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DM10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DN10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DO10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DP10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DQ10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DR10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DS10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DT10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DU10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DV10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DW10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DX10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DY10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DZ10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EA10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EB10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EC10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="ED10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EE10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EF10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EG10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EH10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EI10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EJ10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EK10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EL10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EM10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EN10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EO10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EP10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EQ10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="ER10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="ES10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="ET10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EU10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EV10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EW10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EX10">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:154">
+      <c r="A11" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="U11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="X11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Z11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AA11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AC11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AD11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AE11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AF11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AG11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AH11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AI11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AJ11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AK11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AL11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AM11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AN11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AO11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AP11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AQ11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AR11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AS11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AT11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AU11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AV11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AW11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AX11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AY11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AZ11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BA11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BB11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BC11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BD11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BE11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BF11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BG11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BH11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BI11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BJ11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BK11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BL11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BM11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BN11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BO11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BP11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BQ11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BR11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BS11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BT11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BU11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BV11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BW11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BX11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BY11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BZ11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CA11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CB11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CC11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CD11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CE11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CF11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CG11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CH11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CI11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CJ11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CK11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CL11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CM11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CN11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CO11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CP11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CQ11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CR11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CS11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CT11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CU11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CV11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CW11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CX11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CY11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CZ11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DA11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DB11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DC11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DD11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DE11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DF11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DG11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DH11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DI11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DJ11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DK11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DL11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DM11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DN11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DO11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DP11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DQ11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DR11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DS11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DT11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DU11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DV11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DW11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DX11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DY11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DZ11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EA11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EB11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EC11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="ED11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EE11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EF11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EG11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EH11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EI11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EJ11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EK11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EL11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EM11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EN11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EO11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EP11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EQ11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="ER11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="ES11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="ET11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EU11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EV11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EW11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EX11">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:154">
+      <c r="A12" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="U12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="X12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Z12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AA12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AC12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AD12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AE12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AF12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AG12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AH12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AI12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AJ12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AK12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AL12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AM12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AN12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AO12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AP12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AQ12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AR12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AS12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AT12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AU12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AV12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AW12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AX12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AY12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AZ12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BA12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BB12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BC12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BD12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BE12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BF12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BG12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BH12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BI12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BJ12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BK12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BL12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BM12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BN12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BO12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BP12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BQ12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BR12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BS12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BT12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BU12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BV12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BW12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BX12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BY12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BZ12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CA12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CB12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CC12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CD12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CE12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CF12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CG12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CH12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CI12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CJ12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CK12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CL12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CM12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CN12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CO12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CP12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CQ12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CR12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CS12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CT12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CU12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CV12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CW12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CX12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CY12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CZ12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DA12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DB12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DC12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DD12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DE12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DF12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DG12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DH12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DI12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DJ12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DK12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DL12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DM12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DN12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DO12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DP12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DQ12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DR12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DS12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DT12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DU12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DV12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DW12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DX12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DY12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="DZ12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EA12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EB12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EC12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="ED12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EE12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EF12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EG12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EH12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EI12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EJ12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EK12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EL12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EM12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EN12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EO12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EP12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EQ12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="ER12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="ES12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="ET12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EU12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EV12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EW12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="EX12">
+        <v>2.2000000000000002</v>
       </c>
     </row>
   </sheetData>
